--- a/Fun Family Page A Day Data (v4).xlsx
+++ b/Fun Family Page A Day Data (v4).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\PageADay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\GitHubRepos\PageADay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="PAGES" sheetId="1" r:id="rId1"/>
@@ -46,16 +46,16 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Barry Gerhardt - Personal View" guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" mergeInterval="0" personalView="1" xWindow="333" yWindow="59" windowWidth="1516" windowHeight="897" activeSheetId="1"/>
+    <customWorkbookView name="Windows User - Personal View" guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="854" activeSheetId="1"/>
+    <customWorkbookView name="Rebecca Gerhardt - Personal View" guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1244" windowHeight="540" activeSheetId="1"/>
     <customWorkbookView name="Owner - Personal View" guid="{36663624-9048-4258-8F9E-F8388303C4CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="980" activeSheetId="1"/>
-    <customWorkbookView name="Rebecca Gerhardt - Personal View" guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1244" windowHeight="540" activeSheetId="1"/>
-    <customWorkbookView name="Windows User - Personal View" guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="854" activeSheetId="1"/>
-    <customWorkbookView name="Barry Gerhardt - Personal View" guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" mergeInterval="0" personalView="1" xWindow="333" yWindow="59" windowWidth="1516" windowHeight="897" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="787">
   <si>
     <t>New Year’s Day</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Kate’s Birthday</t>
-  </si>
-  <si>
-    <t>Mikey’s Birthday</t>
   </si>
   <si>
     <t>Maridith’s Birthday</t>
@@ -2068,9 +2065,6 @@
     <t>National Freedom Day</t>
   </si>
   <si>
-    <t>Read Across America Day</t>
-  </si>
-  <si>
     <t>Earth Day</t>
   </si>
   <si>
@@ -2443,12 +2437,6 @@
     <t>Shrove Tuesday is 47 days before Easter</t>
   </si>
   <si>
-    <t>Also Dr. Suess's birthday</t>
-  </si>
-  <si>
-    <t>Dr. Seuss' Birthday</t>
-  </si>
-  <si>
     <t>Daylight savings ends first Sunday in November</t>
   </si>
   <si>
@@ -2604,6 +2592,24 @@
   </si>
   <si>
     <t>2016-10-02 2017-09-20 2018-09-09 2019-09-29 2020-09-18 2021-09-06</t>
+  </si>
+  <si>
+    <t>Michael's Birthday</t>
+  </si>
+  <si>
+    <t>Excuse me sir, where do you keep your nuts?</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Be who you are and say what you feel, because those who mind don't matter and those who matter don't mind.</t>
+  </si>
+  <si>
+    <t>Dr. Seuss</t>
+  </si>
+  <si>
+    <t>Dr Seuss' Birthday and Read Across America Day</t>
   </si>
 </sst>
 </file>
@@ -2765,13 +2771,10 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2784,54 +2787,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3228,13 +3183,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -3250,7 +3198,65 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3417,19 +3423,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PAGES" displayName="PAGES" ref="A9:K375" tableType="xml" totalsRowShown="0">
   <autoFilter ref="A9:K375"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="6">
+    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="27">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:TYPE" xmlDataType="token"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="5">
+    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="26">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:SPECIAL" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="4">
+    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="25">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:MONTH" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="3">
+    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="24">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:DAY" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="2">
+    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="23">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:YEAR" xmlDataType="positiveInteger"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="ns1:HOLIDAY" name="HOLIDAY">
@@ -3441,7 +3447,7 @@
     <tableColumn id="8" uniqueName="ns1:EVENT" name="EVENT">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:EVENT" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="1">
+    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="22">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:PAGES/ns1:PAGE/ns1:SAYING" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="ns1:AUTHOR" name="AUTHOR">
@@ -3456,40 +3462,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DEFAULT" displayName="DEFAULT" ref="A4:K5" tableType="xml" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DEFAULT" displayName="DEFAULT" ref="A4:K5" tableType="xml" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A4:K5"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="19">
+    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="16">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:TYPE" xmlDataType="token"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="18">
+    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="15">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:SPECIAL" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="17">
+    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="14">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:MONTH" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="16">
+    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="13">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:DAY" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="15">
+    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="12">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:YEAR" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:HOLIDAY" name="HOLIDAY" dataDxfId="14">
+    <tableColumn id="6" uniqueName="ns1:HOLIDAY" name="HOLIDAY" dataDxfId="11">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:HOLIDAY" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:BIRTHDAY" name="BIRTHDAY" dataDxfId="13">
+    <tableColumn id="7" uniqueName="ns1:BIRTHDAY" name="BIRTHDAY" dataDxfId="10">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:BIRTHDAY" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:EVENT" name="EVENT" dataDxfId="12">
+    <tableColumn id="8" uniqueName="ns1:EVENT" name="EVENT" dataDxfId="9">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:EVENT" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="11">
+    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="8">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:SAYING" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:AUTHOR" name="AUTHOR" dataDxfId="10">
+    <tableColumn id="10" uniqueName="ns1:AUTHOR" name="AUTHOR" dataDxfId="7">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:AUTHOR" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="ns1:COMMENT" name="COMMENT" dataDxfId="9">
+    <tableColumn id="11" uniqueName="ns1:COMMENT" name="COMMENT" dataDxfId="6">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:DEFAULT/ns1:PAGE/ns1:COMMENT" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3508,19 +3514,19 @@
     <sortCondition ref="E2:E44"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="27">
+    <tableColumn id="1" uniqueName="ns1:TYPE" name="TYPE" dataDxfId="5">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:HOLIDAYS/ns1:PAGE/ns1:TYPE" xmlDataType="token"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="26">
+    <tableColumn id="2" uniqueName="ns1:SPECIAL" name="SPECIAL" dataDxfId="4">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:HOLIDAYS/ns1:PAGE/ns1:SPECIAL" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="25">
+    <tableColumn id="3" uniqueName="ns1:MONTH" name="MONTH" dataDxfId="3">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:HOLIDAYS/ns1:PAGE/ns1:MONTH" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="24">
+    <tableColumn id="4" uniqueName="ns1:DAY" name="DAY" dataDxfId="2">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:HOLIDAYS/ns1:PAGE/ns1:DAY" xmlDataType="positiveInteger"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="0">
+    <tableColumn id="5" uniqueName="ns1:YEAR" name="YEAR" dataDxfId="1">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:HOLIDAYS/ns1:PAGE/ns1:YEAR" xmlDataType="positiveInteger"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="ns1:HOLIDAY" name="HOLIDAY">
@@ -3532,7 +3538,7 @@
     <tableColumn id="8" uniqueName="ns1:EVENT" name="EVENT">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:HOLIDAYS/ns1:PAGE/ns1:EVENT" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="23">
+    <tableColumn id="9" uniqueName="ns1:SAYING" name="SAYING" dataDxfId="0">
       <xmlColumnPr mapId="4" xpath="/ns1:PAGEADAY/ns1:HOLIDAYS/ns1:PAGE/ns1:SAYING" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="ns1:AUTHOR" name="AUTHOR">
@@ -3882,10 +3888,10 @@
   </sheetPr>
   <dimension ref="A1:P375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
-      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,50 +3910,50 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>684</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>686</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>687</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>689</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3960,56 +3966,56 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="22" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" t="s">
         <v>684</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" t="s">
         <v>685</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>686</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>688</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="K9" t="s">
         <v>689</v>
-      </c>
-      <c r="J9" t="s">
-        <v>690</v>
-      </c>
-      <c r="K9" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -4024,10 +4030,10 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -4043,16 +4049,16 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -4062,21 +4068,21 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -4087,14 +4093,14 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -4110,16 +4116,16 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -4129,15 +4135,15 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -4153,10 +4159,10 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -4172,10 +4178,10 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -4191,10 +4197,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="K18" s="4"/>
     </row>
@@ -4210,10 +4216,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -4229,10 +4235,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K20" s="4"/>
     </row>
@@ -4248,16 +4254,16 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -4267,21 +4273,21 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -4292,14 +4298,14 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -4315,10 +4321,10 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -4334,7 +4340,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="4"/>
@@ -4351,10 +4357,10 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -4370,10 +4376,10 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -4389,16 +4395,16 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -4408,21 +4414,21 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -4437,10 +4443,10 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -4456,10 +4462,10 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K31" s="4"/>
     </row>
@@ -4475,10 +4481,10 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K32" s="4"/>
     </row>
@@ -4494,10 +4500,10 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K33" s="4"/>
     </row>
@@ -4513,10 +4519,10 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K34" s="4"/>
     </row>
@@ -4532,10 +4538,10 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K35" s="4"/>
     </row>
@@ -4551,10 +4557,10 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K36" s="4"/>
     </row>
@@ -4570,7 +4576,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="4"/>
@@ -4587,10 +4593,10 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K38" s="4"/>
     </row>
@@ -4608,10 +4614,10 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K39" s="4"/>
     </row>
@@ -4627,16 +4633,16 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
@@ -4646,21 +4652,21 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C42" s="5">
         <v>2</v>
@@ -4670,15 +4676,15 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="9" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K42" s="4"/>
     </row>
@@ -4694,10 +4700,10 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K43" s="4"/>
     </row>
@@ -4713,10 +4719,10 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K44" s="4"/>
     </row>
@@ -4732,10 +4738,10 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K45" s="4"/>
     </row>
@@ -4751,10 +4757,10 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K46" s="4"/>
     </row>
@@ -4770,10 +4776,10 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="K47" s="4"/>
     </row>
@@ -4789,10 +4795,10 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K48" s="4"/>
     </row>
@@ -4808,16 +4814,16 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C50" s="5">
         <v>2</v>
@@ -4827,15 +4833,15 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K50" s="4"/>
     </row>
@@ -4851,10 +4857,10 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K51" s="4"/>
     </row>
@@ -4870,10 +4876,10 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="K52" s="4"/>
     </row>
@@ -4889,16 +4895,16 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C54" s="5">
         <v>2</v>
@@ -4908,12 +4914,12 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4930,10 +4936,10 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K55" s="4"/>
     </row>
@@ -4949,10 +4955,10 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -4968,10 +4974,10 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K57" s="4"/>
     </row>
@@ -4987,10 +4993,10 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K58" s="4"/>
     </row>
@@ -5006,10 +5012,10 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K59" s="4"/>
     </row>
@@ -5025,7 +5031,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="4"/>
@@ -5042,16 +5048,16 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C62" s="5">
         <v>2</v>
@@ -5061,15 +5067,15 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K62" s="4"/>
     </row>
@@ -5085,10 +5091,10 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K63" s="4"/>
     </row>
@@ -5104,10 +5110,10 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K64" s="4"/>
     </row>
@@ -5123,10 +5129,10 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K65" s="4"/>
     </row>
@@ -5142,10 +5148,10 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K66" s="4"/>
     </row>
@@ -5161,16 +5167,16 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C68" s="5">
         <v>2</v>
@@ -5185,16 +5191,16 @@
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
@@ -5204,14 +5210,16 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="J69" s="11"/>
+      <c r="I69" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5226,16 +5234,16 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C71" s="5">
         <v>3</v>
@@ -5245,25 +5253,21 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>732</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>731</v>
-      </c>
+      <c r="I71" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C72" s="5">
         <v>3</v>
@@ -5273,15 +5277,15 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K72" s="4"/>
     </row>
@@ -5297,10 +5301,10 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K73" s="4"/>
     </row>
@@ -5316,16 +5320,16 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
@@ -5336,14 +5340,14 @@
       <c r="E75" s="5"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>4</v>
+        <v>781</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="9" t="s">
-        <v>47</v>
+        <v>782</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>195</v>
+        <v>783</v>
       </c>
       <c r="K75" s="4"/>
     </row>
@@ -5359,10 +5363,10 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K76" s="4"/>
     </row>
@@ -5377,10 +5381,12 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="J77" s="11"/>
+      <c r="I77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="K77" s="4"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5395,10 +5401,10 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K78" s="4"/>
     </row>
@@ -5414,10 +5420,10 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K79" s="4"/>
     </row>
@@ -5433,10 +5439,10 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K80" s="4"/>
     </row>
@@ -5452,10 +5458,10 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K81" s="4"/>
     </row>
@@ -5471,10 +5477,10 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K82" s="4"/>
     </row>
@@ -5490,10 +5496,10 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K83" s="4"/>
     </row>
@@ -5509,10 +5515,10 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K84" s="4"/>
     </row>
@@ -5528,16 +5534,16 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K85" s="4"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C86" s="5">
         <v>3</v>
@@ -5547,14 +5553,14 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -5571,10 +5577,10 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K87" s="4"/>
     </row>
@@ -5590,16 +5596,16 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C89" s="5">
         <v>3</v>
@@ -5609,18 +5615,18 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5635,16 +5641,16 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C91" s="5">
         <v>3</v>
@@ -5654,15 +5660,15 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K91" s="4"/>
     </row>
@@ -5678,10 +5684,10 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K92" s="4"/>
     </row>
@@ -5697,10 +5703,10 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K93" s="4"/>
     </row>
@@ -5716,10 +5722,10 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K94" s="4"/>
     </row>
@@ -5735,16 +5741,16 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C96" s="5">
         <v>3</v>
@@ -5754,15 +5760,15 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K96" s="4"/>
     </row>
@@ -5778,10 +5784,10 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K97" s="4"/>
     </row>
@@ -5797,10 +5803,10 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K98" s="4"/>
     </row>
@@ -5816,19 +5822,19 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K99" s="4"/>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C100" s="5">
         <v>3</v>
@@ -5839,20 +5845,20 @@
       <c r="E100" s="5"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C101" s="5">
         <v>4</v>
@@ -5862,21 +5868,21 @@
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C102" s="5">
         <v>4</v>
@@ -5886,15 +5892,15 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K102" s="4"/>
     </row>
@@ -5910,10 +5916,10 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K103" s="4"/>
     </row>
@@ -5929,10 +5935,10 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K104" s="4"/>
     </row>
@@ -5948,10 +5954,10 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K105" s="4"/>
     </row>
@@ -5967,10 +5973,10 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K106" s="4"/>
     </row>
@@ -5986,10 +5992,10 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K107" s="4"/>
     </row>
@@ -6005,10 +6011,10 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="K108" s="4"/>
     </row>
@@ -6024,16 +6030,16 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K109" s="4"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C110" s="5">
         <v>4</v>
@@ -6043,21 +6049,21 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K110" s="4"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C111" s="5">
         <v>4</v>
@@ -6068,20 +6074,20 @@
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="K111" s="4"/>
     </row>
     <row r="112" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C112" s="5">
         <v>4</v>
@@ -6092,14 +6098,14 @@
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K112" s="12"/>
     </row>
@@ -6115,10 +6121,10 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K113" s="13"/>
     </row>
@@ -6134,7 +6140,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J114" s="11"/>
       <c r="K114" s="12"/>
@@ -6151,10 +6157,10 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K115" s="13"/>
     </row>
@@ -6170,7 +6176,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J116" s="11"/>
       <c r="K116" s="12"/>
@@ -6187,7 +6193,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J117" s="11"/>
       <c r="K117" s="13"/>
@@ -6204,10 +6210,10 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J118" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="K118" s="12"/>
     </row>
@@ -6223,10 +6229,10 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K119" s="4"/>
     </row>
@@ -6242,10 +6248,10 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K120" s="4"/>
     </row>
@@ -6261,16 +6267,16 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C122" s="5">
         <v>4</v>
@@ -6280,15 +6286,15 @@
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J122" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="K122" s="4"/>
     </row>
@@ -6304,16 +6310,16 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C124" s="5">
         <v>4</v>
@@ -6324,14 +6330,14 @@
       <c r="E124" s="5"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K124" s="4"/>
     </row>
@@ -6347,10 +6353,10 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K125" s="4"/>
     </row>
@@ -6366,10 +6372,10 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K126" s="4"/>
     </row>
@@ -6385,16 +6391,16 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C128" s="5">
         <v>4</v>
@@ -6404,15 +6410,15 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K128" s="4"/>
     </row>
@@ -6428,10 +6434,10 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K129" s="4"/>
     </row>
@@ -6447,16 +6453,16 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="J130" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C131" s="5">
         <v>5</v>
@@ -6466,19 +6472,19 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K131" s="4"/>
     </row>
@@ -6494,10 +6500,10 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K132" s="4"/>
     </row>
@@ -6513,16 +6519,16 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C134" s="5">
         <v>5</v>
@@ -6532,21 +6538,21 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C135" s="5">
         <v>5</v>
@@ -6556,21 +6562,21 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J135" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="K135" s="4"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C136" s="5">
         <v>5</v>
@@ -6580,15 +6586,15 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K136" s="4"/>
     </row>
@@ -6604,16 +6610,16 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K137" s="4"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C138" s="5">
         <v>5</v>
@@ -6623,12 +6629,12 @@
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J138" s="11"/>
       <c r="K138" s="4"/>
@@ -6645,10 +6651,10 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K139" s="4"/>
     </row>
@@ -6664,10 +6670,10 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K140" s="4"/>
     </row>
@@ -6683,10 +6689,10 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K141" s="4"/>
     </row>
@@ -6702,10 +6708,10 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K142" s="4"/>
     </row>
@@ -6721,10 +6727,10 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K143" s="4"/>
     </row>
@@ -6740,10 +6746,10 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K144" s="4"/>
     </row>
@@ -6759,16 +6765,16 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K145" s="4"/>
     </row>
     <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C146" s="5">
         <v>5</v>
@@ -6780,19 +6786,19 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K146" s="4"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C147" s="5">
         <v>5</v>
@@ -6803,14 +6809,14 @@
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K147" s="4"/>
     </row>
@@ -6826,16 +6832,16 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K148" s="4"/>
     </row>
     <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C149" s="5">
         <v>5</v>
@@ -6847,13 +6853,13 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K149" s="4"/>
     </row>
@@ -6869,16 +6875,16 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K150" s="4"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C151" s="5">
         <v>5</v>
@@ -6889,20 +6895,20 @@
       <c r="E151" s="5"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K151" s="4"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C152" s="5">
         <v>5</v>
@@ -6912,15 +6918,15 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K152" s="4"/>
     </row>
@@ -6936,10 +6942,10 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K153" s="4"/>
     </row>
@@ -6955,10 +6961,10 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K154" s="4"/>
     </row>
@@ -6974,10 +6980,10 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J155" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="K155" s="4"/>
     </row>
@@ -6993,10 +6999,10 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K156" s="4"/>
     </row>
@@ -7012,10 +7018,10 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K157" s="4"/>
     </row>
@@ -7031,10 +7037,10 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K158" s="4"/>
     </row>
@@ -7050,10 +7056,10 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K159" s="4"/>
     </row>
@@ -7069,10 +7075,10 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K160" s="4"/>
     </row>
@@ -7088,16 +7094,16 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K161" s="4"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C162" s="5">
         <v>6</v>
@@ -7107,15 +7113,15 @@
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K162" s="4"/>
     </row>
@@ -7131,10 +7137,10 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K163" s="4"/>
     </row>
@@ -7150,16 +7156,16 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K164" s="4"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C165" s="5">
         <v>6</v>
@@ -7169,15 +7175,15 @@
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K165" s="4"/>
     </row>
@@ -7193,16 +7199,16 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K166" s="4"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C167" s="5">
         <v>6</v>
@@ -7212,17 +7218,17 @@
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K167" s="4"/>
     </row>
@@ -7238,16 +7244,16 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K168" s="4"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C169" s="5">
         <v>6</v>
@@ -7257,15 +7263,15 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J169" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="K169" s="4"/>
     </row>
@@ -7281,10 +7287,10 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J170" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="K170" s="4"/>
     </row>
@@ -7300,16 +7306,16 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K171" s="4"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C172" s="5">
         <v>6</v>
@@ -7319,15 +7325,15 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K172" s="4"/>
     </row>
@@ -7343,10 +7349,10 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K173" s="4"/>
     </row>
@@ -7362,16 +7368,16 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K174" s="4"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C175" s="5">
         <v>6</v>
@@ -7381,21 +7387,21 @@
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K175" s="4"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C176" s="5">
         <v>6</v>
@@ -7406,14 +7412,14 @@
       <c r="E176" s="5"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H176" s="4"/>
       <c r="I176" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K176" s="4"/>
     </row>
@@ -7429,10 +7435,10 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K177" s="4"/>
     </row>
@@ -7448,10 +7454,10 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K178" s="4"/>
     </row>
@@ -7467,10 +7473,10 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K179" s="4"/>
     </row>
@@ -7486,10 +7492,10 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K180" s="4"/>
     </row>
@@ -7505,16 +7511,16 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K181" s="4"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C182" s="5">
         <v>6</v>
@@ -7526,13 +7532,13 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K182" s="4"/>
     </row>
@@ -7548,10 +7554,10 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K183" s="4"/>
     </row>
@@ -7567,16 +7573,16 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K184" s="4"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C185" s="5">
         <v>6</v>
@@ -7587,14 +7593,14 @@
       <c r="E185" s="5"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J185" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="K185" s="4"/>
     </row>
@@ -7610,16 +7616,16 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K186" s="4"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C187" s="5">
         <v>6</v>
@@ -7629,15 +7635,15 @@
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K187" s="4"/>
     </row>
@@ -7653,10 +7659,10 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K188" s="4"/>
     </row>
@@ -7672,16 +7678,16 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K189" s="4"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C190" s="5">
         <v>6</v>
@@ -7691,15 +7697,15 @@
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K190" s="4"/>
     </row>
@@ -7715,16 +7721,16 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="J191" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="K191" s="4"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C192" s="5">
         <v>7</v>
@@ -7734,15 +7740,15 @@
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K192" s="4"/>
     </row>
@@ -7758,10 +7764,10 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K193" s="4"/>
     </row>
@@ -7777,16 +7783,16 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K194" s="4"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C195" s="5">
         <v>7</v>
@@ -7796,15 +7802,15 @@
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K195" s="4"/>
     </row>
@@ -7820,10 +7826,10 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K196" s="4"/>
     </row>
@@ -7839,16 +7845,16 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K197" s="4"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C198" s="5">
         <v>7</v>
@@ -7858,18 +7864,18 @@
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -7884,10 +7890,10 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K199" s="4"/>
     </row>
@@ -7903,10 +7909,10 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K200" s="4"/>
     </row>
@@ -7922,16 +7928,16 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K201" s="4"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C202" s="5">
         <v>7</v>
@@ -7941,15 +7947,15 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K202" s="4"/>
     </row>
@@ -7965,10 +7971,10 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K203" s="4"/>
     </row>
@@ -7984,10 +7990,10 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K204" s="4"/>
     </row>
@@ -8003,16 +8009,16 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K205" s="4"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C206" s="5">
         <v>7</v>
@@ -8022,15 +8028,15 @@
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K206" s="4"/>
     </row>
@@ -8046,10 +8052,10 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K207" s="4"/>
     </row>
@@ -8065,10 +8071,10 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K208" s="4"/>
     </row>
@@ -8084,10 +8090,10 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K209" s="4"/>
     </row>
@@ -8103,16 +8109,16 @@
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K210" s="4"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C211" s="5">
         <v>7</v>
@@ -8122,15 +8128,15 @@
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="9" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K211" s="4"/>
     </row>
@@ -8146,10 +8152,10 @@
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K212" s="4"/>
     </row>
@@ -8165,10 +8171,10 @@
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K213" s="4"/>
     </row>
@@ -8184,10 +8190,10 @@
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K214" s="4"/>
     </row>
@@ -8203,10 +8209,10 @@
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K215" s="4"/>
     </row>
@@ -8222,16 +8228,16 @@
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K216" s="4"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C217" s="5">
         <v>7</v>
@@ -8241,15 +8247,15 @@
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K217" s="4"/>
     </row>
@@ -8265,10 +8271,10 @@
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K218" s="4"/>
     </row>
@@ -8284,16 +8290,16 @@
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K219" s="4"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C220" s="5">
         <v>7</v>
@@ -8304,20 +8310,20 @@
       <c r="E220" s="5"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K220" s="4"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C221" s="5">
         <v>7</v>
@@ -8327,15 +8333,15 @@
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K221" s="4"/>
     </row>
@@ -8351,10 +8357,10 @@
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J222" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="K222" s="4"/>
     </row>
@@ -8370,10 +8376,10 @@
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K223" s="4"/>
     </row>
@@ -8389,10 +8395,10 @@
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J224" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="K224" s="4"/>
     </row>
@@ -8408,16 +8414,16 @@
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K225" s="4"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C226" s="5">
         <v>8</v>
@@ -8427,15 +8433,15 @@
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
       <c r="I226" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K226" s="4"/>
     </row>
@@ -8451,10 +8457,10 @@
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K227" s="4"/>
     </row>
@@ -8470,10 +8476,10 @@
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K228" s="4"/>
     </row>
@@ -8489,10 +8495,10 @@
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
       <c r="I229" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K229" s="4"/>
     </row>
@@ -8508,16 +8514,16 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K230" s="4"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C231" s="5">
         <v>8</v>
@@ -8527,15 +8533,15 @@
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K231" s="4"/>
     </row>
@@ -8551,10 +8557,10 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J232" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="K232" s="4"/>
     </row>
@@ -8570,16 +8576,16 @@
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K233" s="4"/>
     </row>
     <row r="234" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C234" s="5">
         <v>8</v>
@@ -8589,21 +8595,21 @@
       </c>
       <c r="E234" s="5"/>
       <c r="F234" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K234" s="4"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C235" s="5">
         <v>8</v>
@@ -8613,15 +8619,15 @@
       </c>
       <c r="E235" s="5"/>
       <c r="F235" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K235" s="4"/>
     </row>
@@ -8637,10 +8643,10 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K236" s="4"/>
     </row>
@@ -8656,10 +8662,10 @@
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K237" s="4"/>
     </row>
@@ -8675,10 +8681,10 @@
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
       <c r="I238" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K238" s="4"/>
     </row>
@@ -8694,16 +8700,16 @@
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K239" s="4"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C240" s="5">
         <v>8</v>
@@ -8714,14 +8720,14 @@
       <c r="E240" s="5"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H240" s="4"/>
       <c r="I240" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K240" s="4"/>
     </row>
@@ -8737,10 +8743,10 @@
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
       <c r="I241" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K241" s="4"/>
     </row>
@@ -8756,16 +8762,16 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K242" s="4"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C243" s="5">
         <v>8</v>
@@ -8775,15 +8781,15 @@
       </c>
       <c r="E243" s="5"/>
       <c r="F243" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K243" s="4"/>
     </row>
@@ -8799,10 +8805,10 @@
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K244" s="4"/>
     </row>
@@ -8818,10 +8824,10 @@
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K245" s="4"/>
     </row>
@@ -8837,10 +8843,10 @@
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K246" s="4"/>
     </row>
@@ -8856,16 +8862,16 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K247" s="4"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C248" s="5">
         <v>8</v>
@@ -8875,15 +8881,15 @@
       </c>
       <c r="E248" s="5"/>
       <c r="F248" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K248" s="4"/>
     </row>
@@ -8899,10 +8905,10 @@
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K249" s="4"/>
     </row>
@@ -8918,10 +8924,10 @@
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
       <c r="I250" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K250" s="4"/>
     </row>
@@ -8937,16 +8943,16 @@
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K251" s="4"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C252" s="5">
         <v>8</v>
@@ -8956,20 +8962,20 @@
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -8984,10 +8990,10 @@
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
       <c r="I253" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K253" s="4"/>
     </row>
@@ -9003,10 +9009,10 @@
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K254" s="4"/>
     </row>
@@ -9022,10 +9028,10 @@
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K255" s="4"/>
     </row>
@@ -9041,16 +9047,16 @@
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J256" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="K256" s="4"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C257" s="5">
         <v>9</v>
@@ -9061,14 +9067,14 @@
       <c r="E257" s="5"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H257" s="4"/>
       <c r="I257" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K257" s="4"/>
     </row>
@@ -9084,16 +9090,16 @@
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
       <c r="I258" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K258" s="4"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C259" s="5">
         <v>9</v>
@@ -9103,15 +9109,15 @@
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K259" s="4"/>
     </row>
@@ -9127,10 +9133,10 @@
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
       <c r="I260" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K260" s="4"/>
     </row>
@@ -9146,10 +9152,10 @@
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J261" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="K261" s="4"/>
     </row>
@@ -9165,10 +9171,10 @@
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
       <c r="I262" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K262" s="4"/>
     </row>
@@ -9184,16 +9190,16 @@
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K263" s="4"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C264" s="5">
         <v>9</v>
@@ -9203,15 +9209,15 @@
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K264" s="4"/>
     </row>
@@ -9227,10 +9233,10 @@
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
       <c r="I265" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K265" s="4"/>
     </row>
@@ -9246,16 +9252,16 @@
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K266" s="4"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C267" s="5">
         <v>9</v>
@@ -9265,15 +9271,15 @@
       </c>
       <c r="E267" s="5"/>
       <c r="F267" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K267" s="4"/>
     </row>
@@ -9289,16 +9295,16 @@
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
       <c r="I268" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K268" s="4"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C269" s="5">
         <v>9</v>
@@ -9308,15 +9314,15 @@
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K269" s="4"/>
     </row>
@@ -9332,16 +9338,16 @@
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K270" s="4"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C271" s="5">
         <v>9</v>
@@ -9352,14 +9358,14 @@
       <c r="E271" s="5"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H271" s="4"/>
       <c r="I271" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K271" s="4"/>
     </row>
@@ -9375,10 +9381,10 @@
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
       <c r="I272" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K272" s="4"/>
     </row>
@@ -9394,10 +9400,10 @@
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
       <c r="I273" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K273" s="4"/>
     </row>
@@ -9413,10 +9419,10 @@
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
       <c r="I274" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K274" s="4"/>
     </row>
@@ -9432,10 +9438,10 @@
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
       <c r="I275" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J275" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K275" s="4"/>
     </row>
@@ -9451,10 +9457,10 @@
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
       <c r="I276" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J276" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K276" s="4"/>
     </row>
@@ -9470,10 +9476,10 @@
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
       <c r="I277" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K277" s="4"/>
     </row>
@@ -9489,16 +9495,16 @@
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J278" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K278" s="4"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C279" s="5">
         <v>9</v>
@@ -9508,15 +9514,15 @@
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K279" s="4"/>
     </row>
@@ -9532,16 +9538,16 @@
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
       <c r="I280" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K280" s="4"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C281" s="5">
         <v>9</v>
@@ -9551,15 +9557,15 @@
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K281" s="4"/>
     </row>
@@ -9575,10 +9581,10 @@
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K282" s="4"/>
     </row>
@@ -9594,16 +9600,16 @@
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K283" s="4"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C284" s="5">
         <v>10</v>
@@ -9613,15 +9619,15 @@
       </c>
       <c r="E284" s="5"/>
       <c r="F284" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
       <c r="I284" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K284" s="4"/>
     </row>
@@ -9637,10 +9643,10 @@
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K285" s="4"/>
     </row>
@@ -9656,10 +9662,10 @@
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
       <c r="I286" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K286" s="4"/>
     </row>
@@ -9675,16 +9681,16 @@
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J287" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K287" s="4"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C288" s="5">
         <v>10</v>
@@ -9694,15 +9700,15 @@
       </c>
       <c r="E288" s="5"/>
       <c r="F288" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K288" s="4"/>
     </row>
@@ -9718,10 +9724,10 @@
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
       <c r="I289" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J289" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="K289" s="4"/>
     </row>
@@ -9737,10 +9743,10 @@
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K290" s="4"/>
     </row>
@@ -9756,10 +9762,10 @@
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K291" s="4"/>
     </row>
@@ -9775,7 +9781,7 @@
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
       <c r="I292" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J292" s="11"/>
       <c r="K292" s="4"/>
@@ -9792,16 +9798,16 @@
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J293" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K293" s="4"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C294" s="5">
         <v>10</v>
@@ -9812,14 +9818,14 @@
       <c r="E294" s="5"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H294" s="4"/>
       <c r="I294" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K294" s="4"/>
     </row>
@@ -9835,10 +9841,10 @@
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J295" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K295" s="4"/>
     </row>
@@ -9854,10 +9860,10 @@
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
       <c r="I296" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J296" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K296" s="4"/>
     </row>
@@ -9873,10 +9879,10 @@
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J297" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K297" s="4"/>
     </row>
@@ -9892,16 +9898,16 @@
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
       <c r="I298" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="J298" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="J298" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="K298" s="4"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C299" s="5">
         <v>10</v>
@@ -9911,18 +9917,18 @@
       </c>
       <c r="E299" s="5"/>
       <c r="F299" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
       <c r="I299" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J299" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K299" s="4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -9937,10 +9943,10 @@
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
       <c r="I300" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J300" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K300" s="4"/>
     </row>
@@ -9956,10 +9962,10 @@
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
       <c r="I301" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J301" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K301" s="4"/>
     </row>
@@ -9975,10 +9981,10 @@
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J302" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K302" s="4"/>
     </row>
@@ -9994,16 +10000,16 @@
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
       <c r="I303" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="J303" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="J303" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="K303" s="4"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C304" s="5">
         <v>10</v>
@@ -10014,14 +10020,14 @@
       <c r="E304" s="5"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H304" s="4"/>
       <c r="I304" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J304" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K304" s="4"/>
     </row>
@@ -10037,10 +10043,10 @@
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J305" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K305" s="4"/>
     </row>
@@ -10056,10 +10062,10 @@
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="J306" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="J306" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="K306" s="4"/>
     </row>
@@ -10072,15 +10078,15 @@
       </c>
       <c r="E307" s="5"/>
       <c r="F307" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
       <c r="I307" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J307" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K307" s="4"/>
     </row>
@@ -10096,16 +10102,16 @@
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J308" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="J308" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="K308" s="4"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C309" s="5">
         <v>10</v>
@@ -10116,14 +10122,14 @@
       <c r="E309" s="5"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H309" s="4"/>
       <c r="I309" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J309" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K309" s="4"/>
     </row>
@@ -10139,10 +10145,10 @@
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
       <c r="I310" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J310" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="J310" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="K310" s="4"/>
     </row>
@@ -10158,10 +10164,10 @@
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K311" s="4"/>
     </row>
@@ -10177,10 +10183,10 @@
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
       <c r="I312" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J312" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K312" s="4"/>
     </row>
@@ -10196,16 +10202,16 @@
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
       <c r="I313" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J313" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K313" s="4"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C314" s="5">
         <v>10</v>
@@ -10215,19 +10221,19 @@
       </c>
       <c r="E314" s="5"/>
       <c r="F314" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C315" s="5">
         <v>11</v>
@@ -10237,15 +10243,15 @@
       </c>
       <c r="E315" s="5"/>
       <c r="F315" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J315" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K315" s="4"/>
     </row>
@@ -10261,10 +10267,10 @@
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J316" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K316" s="4"/>
     </row>
@@ -10280,7 +10286,7 @@
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J317" s="11"/>
       <c r="K317" s="4"/>
@@ -10297,10 +10303,10 @@
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J318" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K318" s="4"/>
     </row>
@@ -10316,10 +10322,10 @@
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
       <c r="I319" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J319" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K319" s="4"/>
     </row>
@@ -10335,16 +10341,16 @@
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J320" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K320" s="4"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C321" s="5">
         <v>11</v>
@@ -10356,13 +10362,13 @@
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I321" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J321" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K321" s="4"/>
     </row>
@@ -10378,16 +10384,16 @@
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
       <c r="I322" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J322" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K322" s="4"/>
     </row>
     <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C323" s="5">
         <v>11</v>
@@ -10399,13 +10405,13 @@
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I323" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J323" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K323" s="4"/>
     </row>
@@ -10421,16 +10427,16 @@
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
       <c r="I324" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J324" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K324" s="4"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C325" s="5">
         <v>11</v>
@@ -10440,15 +10446,15 @@
       </c>
       <c r="E325" s="5"/>
       <c r="F325" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
       <c r="I325" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K325" s="4"/>
     </row>
@@ -10464,16 +10470,16 @@
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
       <c r="I326" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J326" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K326" s="4"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C327" s="5">
         <v>11</v>
@@ -10483,15 +10489,15 @@
       </c>
       <c r="E327" s="5"/>
       <c r="F327" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
       <c r="I327" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J327" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K327" s="4"/>
     </row>
@@ -10507,16 +10513,16 @@
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
       <c r="I328" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J328" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="J328" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="K328" s="4"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C329" s="5">
         <v>11</v>
@@ -10527,20 +10533,20 @@
       <c r="E329" s="5"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H329" s="4"/>
       <c r="I329" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J329" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="K329" s="4"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C330" s="5">
         <v>11</v>
@@ -10551,14 +10557,14 @@
       <c r="E330" s="5"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H330" s="4"/>
       <c r="I330" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J330" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K330" s="4"/>
     </row>
@@ -10574,10 +10580,10 @@
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
       <c r="I331" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="J331" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="K331" s="4"/>
     </row>
@@ -10593,10 +10599,10 @@
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
       <c r="I332" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K332" s="4"/>
     </row>
@@ -10612,16 +10618,16 @@
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
       <c r="I333" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K333" s="4"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C334" s="5">
         <v>11</v>
@@ -10631,15 +10637,15 @@
       </c>
       <c r="E334" s="5"/>
       <c r="F334" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
       <c r="I334" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J334" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K334" s="4"/>
     </row>
@@ -10655,10 +10661,10 @@
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
       <c r="I335" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J335" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K335" s="4"/>
     </row>
@@ -10674,10 +10680,10 @@
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
       <c r="I336" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J336" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K336" s="4"/>
     </row>
@@ -10693,14 +10699,14 @@
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
       <c r="I337" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J337" s="11"/>
       <c r="K337" s="4"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C338" s="5">
         <v>11</v>
@@ -10711,14 +10717,14 @@
       <c r="E338" s="5"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H338" s="4"/>
       <c r="I338" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J338" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K338" s="4"/>
     </row>
@@ -10734,10 +10740,10 @@
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
       <c r="I339" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J339" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K339" s="4"/>
     </row>
@@ -10753,10 +10759,10 @@
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
       <c r="I340" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J340" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K340" s="4"/>
     </row>
@@ -10772,10 +10778,10 @@
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
       <c r="I341" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J341" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K341" s="4"/>
     </row>
@@ -10791,16 +10797,16 @@
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
       <c r="I342" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J342" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K342" s="4"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C343" s="5">
         <v>11</v>
@@ -10810,21 +10816,21 @@
       </c>
       <c r="E343" s="5"/>
       <c r="F343" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
       <c r="I343" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J343" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K343" s="4"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C344" s="5">
         <v>11</v>
@@ -10835,14 +10841,14 @@
       <c r="E344" s="5"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H344" s="4"/>
       <c r="I344" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J344" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K344" s="4"/>
     </row>
@@ -10858,10 +10864,10 @@
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
       <c r="I345" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J345" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K345" s="4"/>
     </row>
@@ -10877,10 +10883,10 @@
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
       <c r="I346" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J346" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K346" s="4"/>
     </row>
@@ -10896,10 +10902,10 @@
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
       <c r="I347" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J347" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K347" s="4"/>
     </row>
@@ -10915,10 +10921,10 @@
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
       <c r="I348" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J348" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K348" s="4"/>
     </row>
@@ -10934,16 +10940,16 @@
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
       <c r="I349" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J349" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K349" s="4"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C350" s="5">
         <v>12</v>
@@ -10953,21 +10959,21 @@
       </c>
       <c r="E350" s="5"/>
       <c r="F350" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
       <c r="I350" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J350" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K350" s="4"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C351" s="5">
         <v>12</v>
@@ -10977,15 +10983,15 @@
       </c>
       <c r="E351" s="5"/>
       <c r="F351" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
       <c r="I351" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="J351" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="J351" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="K351" s="4"/>
     </row>
@@ -11001,10 +11007,10 @@
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
       <c r="I352" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J352" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K352" s="4"/>
     </row>
@@ -11020,16 +11026,16 @@
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
       <c r="I353" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J353" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K353" s="4"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C354" s="5">
         <v>12</v>
@@ -11040,14 +11046,14 @@
       <c r="E354" s="5"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H354" s="4"/>
       <c r="I354" s="9" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="J354" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K354" s="4"/>
     </row>
@@ -11063,10 +11069,10 @@
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
       <c r="I355" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J355" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K355" s="4"/>
     </row>
@@ -11082,10 +11088,10 @@
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
       <c r="I356" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J356" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K356" s="4"/>
     </row>
@@ -11101,10 +11107,10 @@
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J357" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K357" s="4"/>
     </row>
@@ -11120,10 +11126,10 @@
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
       <c r="I358" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J358" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K358" s="4"/>
     </row>
@@ -11139,10 +11145,10 @@
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J359" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K359" s="4"/>
     </row>
@@ -11158,16 +11164,16 @@
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
       <c r="I360" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="J360" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="J360" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="K360" s="4"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C361" s="5">
         <v>12</v>
@@ -11177,15 +11183,15 @@
       </c>
       <c r="E361" s="5"/>
       <c r="F361" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
       <c r="I361" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J361" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K361" s="4"/>
     </row>
@@ -11201,10 +11207,10 @@
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
       <c r="I362" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J362" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K362" s="4"/>
     </row>
@@ -11220,10 +11226,10 @@
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
       <c r="I363" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J363" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K363" s="4"/>
     </row>
@@ -11239,10 +11245,10 @@
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
       <c r="I364" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J364" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K364" s="4"/>
     </row>
@@ -11258,10 +11264,10 @@
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
       <c r="I365" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J365" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K365" s="4"/>
     </row>
@@ -11277,10 +11283,10 @@
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
       <c r="I366" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J366" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="J366" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="K366" s="4"/>
     </row>
@@ -11296,16 +11302,16 @@
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
       <c r="I367" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J367" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K367" s="4"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C368" s="5">
         <v>12</v>
@@ -11315,21 +11321,21 @@
       </c>
       <c r="E368" s="5"/>
       <c r="F368" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
       <c r="I368" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J368" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="J368" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="K368" s="4"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C369" s="5">
         <v>12</v>
@@ -11339,21 +11345,21 @@
       </c>
       <c r="E369" s="5"/>
       <c r="F369" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
       <c r="I369" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J369" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K369" s="4"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C370" s="5">
         <v>12</v>
@@ -11363,21 +11369,21 @@
       </c>
       <c r="E370" s="5"/>
       <c r="F370" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
       <c r="I370" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J370" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K370" s="4"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C371" s="5">
         <v>12</v>
@@ -11387,15 +11393,15 @@
       </c>
       <c r="E371" s="5"/>
       <c r="F371" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
       <c r="I371" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="J371" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="J371" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="K371" s="4"/>
     </row>
@@ -11411,10 +11417,10 @@
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
       <c r="I372" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J372" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K372" s="4"/>
     </row>
@@ -11430,10 +11436,10 @@
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
       <c r="I373" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J373" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K373" s="4"/>
     </row>
@@ -11449,14 +11455,14 @@
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
       <c r="I374" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J374" s="11"/>
       <c r="K374" s="4"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C375" s="5">
         <v>12</v>
@@ -11466,25 +11472,33 @@
       </c>
       <c r="E375" s="5"/>
       <c r="F375" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
       <c r="I375" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J375" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K375" s="4"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="M14" sqref="M14"/>
+    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+      <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+      <autoFilter ref="A1:J409"/>
+    </customSheetView>
+    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="F11" sqref="F11"/>
+      <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <printOptions gridLines="1"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition ref="A2:A366"/>
@@ -11494,31 +11508,23 @@
     <customSheetView guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition descending="1" ref="A2:A366"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="F11" sqref="F11"/>
+    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="M14" sqref="M14"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <printOptions gridLines="1"/>
-      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+      <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <autoFilter ref="A1:J366">
         <sortState ref="A2:J366">
           <sortCondition ref="A2:A366"/>
         </sortState>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297"/>
-      <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <printOptions gridLines="1"/>
-      <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId4"/>
-      <autoFilter ref="A1:J409"/>
     </customSheetView>
   </customSheetViews>
   <printOptions gridLines="1"/>
@@ -11538,8 +11544,8 @@
   </sheetPr>
   <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
@@ -11560,53 +11566,53 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" t="s">
         <v>684</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G3" t="s">
         <v>685</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>686</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>688</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" t="s">
         <v>689</v>
-      </c>
-      <c r="J3" t="s">
-        <v>690</v>
-      </c>
-      <c r="K3" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -11616,109 +11622,109 @@
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="9"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="9"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -11728,27 +11734,27 @@
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -11760,21 +11766,21 @@
         <v>2020</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -11786,21 +11792,21 @@
         <v>2017</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
@@ -11812,21 +11818,21 @@
         <v>2019</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -11838,21 +11844,21 @@
         <v>2021</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
@@ -11864,101 +11870,101 @@
         <v>2018</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C19" s="5">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="9"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C20" s="5">
         <v>9</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -11968,78 +11974,78 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>727</v>
       </c>
       <c r="C21" s="5">
         <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="K21" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C22" s="5">
         <v>9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C23" s="5">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="9"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -12051,7 +12057,7 @@
         <v>2017</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -12061,7 +12067,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
@@ -12073,7 +12079,7 @@
         <v>2018</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -12083,7 +12089,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C26" s="5">
         <v>12</v>
@@ -12097,7 +12103,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="4"/>
@@ -12105,10 +12111,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C27" s="5">
         <v>9</v>
@@ -12117,7 +12123,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -12127,16 +12133,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C28" s="5">
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -12146,13 +12152,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -12162,13 +12168,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -12178,10 +12184,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C31" s="5">
         <v>11</v>
@@ -12190,7 +12196,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -12200,13 +12206,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -12216,15 +12222,15 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="4"/>
@@ -12232,13 +12238,13 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -12248,10 +12254,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -12260,91 +12266,91 @@
         <v>20</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="8"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C36" s="5">
         <v>2</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="9"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C37" s="5">
         <v>8</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C38" s="5">
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="9"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C39" s="5">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -12354,168 +12360,168 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C40" s="5">
         <v>11</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C41" s="5">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C42" s="5">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C43" s="5">
         <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C44" s="5">
         <v>7</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="9"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C45" s="5">
         <v>11</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C46" s="5">
         <v>11</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="9"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C47" s="5">
         <v>4</v>
@@ -12524,15 +12530,15 @@
         <v>15</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K47" s="13"/>
     </row>
@@ -12560,226 +12566,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -12787,938 +12793,938 @@
         <v>40537</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D121" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D145" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -13726,16 +13732,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}">
+    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" topLeftCell="A151">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{FBFDDEB8-09C3-4C2E-8A82-FA3F5F43B9A0}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9C0311F0-DF70-44FD-BFCF-C4DBE8DC2CBB}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{1E205BAA-3839-4793-9AC9-6DFA286FC573}" topLeftCell="A151">
+    <customSheetView guid="{36663624-9048-4258-8F9E-F8388303C4CD}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
